--- a/biology/Histoire de la zoologie et de la botanique/Edwin_Butterworth_Mains/Edwin_Butterworth_Mains.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edwin_Butterworth_Mains/Edwin_Butterworth_Mains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edwin Butterworth Mains est un mycologue américain, né le 31 mars 1890 à Coldwater dans le Comté de Branch du Michigan et mort le 23 décembre 1968 à Ann Arbor d’une crise cardiaque.
 Il est le fils de Benjamin W. et de Mary Ann (née Butterworth) Mains. Il commence en 1909 ses études à l’université de l'État du Michigan puis, deux ans plus tard, à l’université du Michigan d’Ann Arbor. Il y reçoit en 1916 son doctorat avec une thèse portant sur les relations entre les parasites et leurs hôtes avec l’exemple de la rouille. Il fait presque toute sa carrière scientifique en étudiant les Uredinales. Son directeur de thèse est le mycologue Calvin Henry Kauffman (1869-1931).
@@ -515,7 +527,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexander Hanchett Smith (1969). Edwin Butterworth Mains 1890-1968, Mycologia, 61 (3) : 449-451.
 Mains est l’abréviation botanique standard de Edwin Butterworth Mains.
